--- a/trend_results/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
+++ b/trend_results/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0261669864859679</v>
+        <v>0.973833013514032</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.729735802775382</v>
+        <v>0.270264197224618</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">

--- a/trend_results/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
+++ b/trend_results/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.213639453085988</v>
+        <v>0.470616203057875</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.728813559322034</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.15</v>
+        <v>1.525</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0470271838034577</v>
+        <v>0.033394541366277</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.114960847981601</v>
+        <v>-0.260079093151912</v>
       </c>
       <c r="M2" t="n">
-        <v>0.288364143474952</v>
+        <v>0.234310225530207</v>
       </c>
       <c r="N2" t="n">
-        <v>4.08932033073545</v>
+        <v>2.18980599123128</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.973833013514032</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11.05</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0947808916626849</v>
+        <v>0.0012722967821651</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0130349213121994</v>
+        <v>-0.0597473741615733</v>
       </c>
       <c r="M3" t="n">
-        <v>0.166532208024301</v>
+        <v>0.0591652680288853</v>
       </c>
       <c r="N3" t="n">
-        <v>0.857745625906651</v>
+        <v>0.0115663343833198</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.127466830993056</v>
+        <v>0.0608830012402253</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0357142857142857</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.178571428571429</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0.007</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0002502583764919</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000668956043956</v>
+        <v>0.0005929383116882999</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.57511966417042</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.737668721364758</v>
+        <v>0.999842716067363</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.456521739130435</v>
+        <v>0.410714285714286</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.83082706766917</v>
+        <v>-4.71290322580645</v>
       </c>
       <c r="L5" t="n">
-        <v>-7.69464974117382</v>
+        <v>-9.44185928167866</v>
       </c>
       <c r="M5" t="n">
-        <v>3.4288006325352</v>
+        <v>-3.0103021978022</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.32330827067669</v>
+        <v>-22.4423963133641</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -938,13 +938,13 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.9803921568627449</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.799925003421183</v>
+        <v>0.988347249152</v>
       </c>
       <c r="G7" t="n">
-        <v>0.875</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.980811510567775</v>
       </c>
       <c r="G8" t="n">
         <v>0.0178571428571429</v>
       </c>
       <c r="H8" t="n">
-        <v>0.696428571428571</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0305</v>
+        <v>0.0315</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0009938775510204001</v>
+        <v>-0.0036792582417582</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0040137362637362</v>
+        <v>-0.0064740645563955</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0038074698170505</v>
+        <v>-0.002124837206916</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25861492137838</v>
+        <v>-11.6801848944706</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1194,35 +1194,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.270264197224618</v>
+        <v>0.476834566810564</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.777777777777778</v>
+        <v>0.781818181818182</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.575</v>
+        <v>7.55</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0168317972350231</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0579761904761914</v>
+        <v>-0.0468159264339306</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0247329320142796</v>
+        <v>0.0356879931658108</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.222201943696674</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.530567505088112</v>
+        <v>0.998169198612947</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.039</v>
+        <v>0.03875</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0004976158038147</v>
+        <v>-0.0040137362637362</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0036239692192384</v>
+        <v>-0.007454081632653</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0026944825072357</v>
+        <v>-0.002592682957231</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.27593795849926</v>
+        <v>-10.3580290677065</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1372,17 +1372,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.817920056379591</v>
+        <v>0.992346212865899</v>
       </c>
       <c r="G11" t="n">
-        <v>0.107142857142857</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H11" t="n">
-        <v>0.214285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1391,16 +1391,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.0052178571428571</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0056227035604729</v>
+        <v>-0.0089197646631765</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-7.45408163265306</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.04938537158707</v>
+        <v>0.0827352242598377</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003586537293488</v>
+        <v>0.0002473140277069</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0008427073016003</v>
+        <v>0.0006604882459312</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9850414372098</v>
+        <v>2.74793364118791</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.04320536648685</v>
+        <v>0.013743168055755</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.642</v>
+        <v>0.63</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0116158725602756</v>
+        <v>-0.0123488157040883</v>
       </c>
       <c r="L13" t="n">
         <v>-0.0232947330954309</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0065568273424007</v>
+        <v>-0.009859001579305899</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.80932594396815</v>
+        <v>-1.96012947683941</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.40324797025367</v>
+        <v>0.04320536648685</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>126.15</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.30692109225295</v>
+        <v>-4.88784233162507</v>
       </c>
       <c r="L14" t="n">
         <v>-21.0490927232329</v>
       </c>
       <c r="M14" t="n">
-        <v>12.1999754691596</v>
+        <v>-2.64786529564445</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.03600562207923</v>
+        <v>-3.87462729419348</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>0.04320536648685</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>7.37</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0407895635022501</v>
+        <v>-0.221433597781218</v>
       </c>
       <c r="L15" t="n">
         <v>-0.501638326902986</v>
       </c>
       <c r="M15" t="n">
-        <v>0.95885580587345</v>
+        <v>-0.191983625505063</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.553454050234058</v>
+        <v>-3.00452642851042</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">

--- a/trend_results/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
+++ b/trend_results/Rivers/OhauatusMakahikaConfluence_96b72e8909.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Chlorophyll A</t>
   </si>
   <si>
+    <t>Visual Clarity</t>
+  </si>
+  <si>
     <t>Dissolved Oxygen Concentration</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
   </si>
   <si>
@@ -133,36 +139,57 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>&lt; 3 unique values</t>
   </si>
   <si>
+    <t>&lt; 5 Non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
@@ -181,6 +208,9 @@
     <t>mg/m2</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>g/m3</t>
   </si>
   <si>
@@ -188,6 +218,9 @@
   </si>
   <si>
     <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -545,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,40 +669,40 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>0.470616203057875</v>
+        <v>0.07928921194338651</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.775862068965517</v>
+        <v>0.763636363636364</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.525</v>
+        <v>1.95</v>
       </c>
       <c r="K2">
-        <v>0.033394541366277</v>
+        <v>0.218950953678474</v>
       </c>
       <c r="L2">
-        <v>-0.260079093151912</v>
+        <v>-0.100343821708004</v>
       </c>
       <c r="M2">
-        <v>0.234310225530207</v>
+        <v>0.528480553560156</v>
       </c>
       <c r="N2">
-        <v>2.18980599123128</v>
+        <v>11.2282540347935</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q2">
         <v>1799585</v>
@@ -678,19 +711,19 @@
         <v>5496887</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -704,43 +737,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.68637772151485</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="H3">
-        <v>0.836363636363636</v>
+        <v>0.886363636363636</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>5.25</v>
       </c>
       <c r="K3">
-        <v>0.0012722967821651</v>
+        <v>0.149203431372549</v>
       </c>
       <c r="L3">
-        <v>-0.0597473741615733</v>
+        <v>-0.354200063896246</v>
       </c>
       <c r="M3">
-        <v>0.0591652680288853</v>
+        <v>0.6223190550769691</v>
       </c>
       <c r="N3">
-        <v>0.0115663343833198</v>
+        <v>2.84197012138188</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q3">
         <v>1799585</v>
@@ -749,19 +782,19 @@
         <v>5496887</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -775,43 +808,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.0608830012402253</v>
+        <v>0.754987320249101</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.214285714285714</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.007</v>
+        <v>11.03</v>
       </c>
       <c r="K4">
-        <v>0.0002502583764919</v>
+        <v>0.0150515109890116</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0.0512406648829076</v>
       </c>
       <c r="M4">
-        <v>0.0005929383116882999</v>
+        <v>0.0767248080977002</v>
       </c>
       <c r="N4">
-        <v>3.57511966417042</v>
+        <v>0.136459755113432</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q4">
         <v>1799585</v>
@@ -820,19 +853,19 @@
         <v>5496887</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -846,43 +879,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.999842716067363</v>
+        <v>0.272795809943441</v>
       </c>
       <c r="G5">
-        <v>0.0892857142857143</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.410714285714286</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>21</v>
+        <v>0.007</v>
       </c>
       <c r="K5">
-        <v>-4.71290322580645</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-9.44185928167866</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>-3.0103021978022</v>
+        <v>0.0003087489433643</v>
       </c>
       <c r="N5">
-        <v>-22.4423963133641</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q5">
         <v>1799585</v>
@@ -891,19 +924,19 @@
         <v>5496887</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -917,25 +950,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>0.973833013514032</v>
       </c>
       <c r="G6">
-        <v>0.981132075471698</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="H6">
-        <v>0.0377358490566038</v>
+        <v>0.464285714285714</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>16.4</v>
+      </c>
+      <c r="K6">
+        <v>-2.30789835164835</v>
+      </c>
+      <c r="L6">
+        <v>-4.04325739938508</v>
+      </c>
+      <c r="M6">
+        <v>-0.355905798291581</v>
+      </c>
+      <c r="N6">
+        <v>-14.0725509246851</v>
+      </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q6">
         <v>1799585</v>
@@ -944,19 +995,19 @@
         <v>5496887</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -973,40 +1024,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>0.988347249152</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>0.892857142857143</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="H7">
-        <v>0.0535714285714286</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>0.001</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q7">
         <v>1799585</v>
@@ -1015,19 +1048,19 @@
         <v>5496887</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1041,43 +1074,25 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8">
-        <v>0.980811510567775</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>0.0178571428571429</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="H8">
-        <v>0.714285714285714</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>0.0315</v>
-      </c>
-      <c r="K8">
-        <v>-0.0036792582417582</v>
-      </c>
-      <c r="L8">
-        <v>-0.0064740645563955</v>
-      </c>
-      <c r="M8">
-        <v>-0.002124837206916</v>
-      </c>
-      <c r="N8">
-        <v>-11.6801848944706</v>
-      </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>1799585</v>
@@ -1086,19 +1101,19 @@
         <v>5496887</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1112,43 +1127,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>0.476834566810564</v>
+        <v>0.9971905589255809</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H9">
-        <v>0.781818181818182</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>7.55</v>
+        <v>0.028</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-0.0034785714285714</v>
       </c>
       <c r="L9">
-        <v>-0.0468159264339306</v>
+        <v>-0.0061048090891147</v>
       </c>
       <c r="M9">
-        <v>0.0356879931658108</v>
+        <v>-0.002700718041225</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>-12.4234693877551</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q9">
         <v>1799585</v>
@@ -1157,16 +1172,19 @@
         <v>5496887</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1180,43 +1198,43 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>0.998169198612947</v>
+        <v>0.718943821840598</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.75</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03875</v>
+        <v>7.57</v>
       </c>
       <c r="K10">
-        <v>-0.0040137362637362</v>
+        <v>0.0183360590068504</v>
       </c>
       <c r="L10">
-        <v>-0.007454081632653</v>
+        <v>-0.0290782953068014</v>
       </c>
       <c r="M10">
-        <v>-0.002592682957231</v>
+        <v>0.0579761904761906</v>
       </c>
       <c r="N10">
-        <v>-10.3580290677065</v>
+        <v>0.242220066140692</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1799585</v>
@@ -1225,19 +1243,16 @@
         <v>5496887</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V10" t="s">
-        <v>53</v>
-      </c>
-      <c r="W10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1251,43 +1266,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.992346212865899</v>
+        <v>0.996366749228617</v>
       </c>
       <c r="G11">
-        <v>0.0357142857142857</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.25</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07000000000000001</v>
+        <v>0.034</v>
       </c>
       <c r="K11">
-        <v>-0.0052178571428571</v>
+        <v>-0.0043690191387559</v>
       </c>
       <c r="L11">
-        <v>-0.0089197646631765</v>
+        <v>-0.0061894692590927</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-0.002768429861167</v>
       </c>
       <c r="N11">
-        <v>-7.45408163265306</v>
+        <v>-12.8500562904588</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q11">
         <v>1799585</v>
@@ -1296,19 +1311,19 @@
         <v>5496887</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="W11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1325,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>0.0827352242598377</v>
+        <v>0.520013080007003</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1340,25 +1355,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.008999999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K12">
-        <v>0.0002473140277069</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0029266653318439</v>
       </c>
       <c r="M12">
-        <v>0.0006604882459312</v>
+        <v>0.0026752601781745</v>
       </c>
       <c r="N12">
-        <v>2.74793364118791</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q12">
         <v>1799585</v>
@@ -1367,19 +1382,19 @@
         <v>5496887</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="W12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1396,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>0.013743168055755</v>
+        <v>0.152501399269509</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.63</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K13">
-        <v>-0.0123488157040883</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>-0.0232947330954309</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.009859001579305899</v>
+        <v>0.0004453123710875</v>
       </c>
       <c r="N13">
-        <v>-1.96012947683941</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
         <v>49</v>
@@ -1438,16 +1453,19 @@
         <v>5496887</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="W13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1464,40 +1482,40 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>0.04320536648685</v>
+        <v>0.985380839674711</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.740740740740741</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>126.15</v>
+        <v>0.375</v>
       </c>
       <c r="K14">
-        <v>-4.88784233162507</v>
+        <v>-0.0358727678571429</v>
       </c>
       <c r="L14">
-        <v>-21.0490927232329</v>
+        <v>-0.0613865546218487</v>
       </c>
       <c r="M14">
-        <v>-2.64786529564445</v>
+        <v>-0.0100687427440682</v>
       </c>
       <c r="N14">
-        <v>-3.87462729419348</v>
+        <v>-9.56607142857143</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1799585</v>
@@ -1506,16 +1524,19 @@
         <v>5496887</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="W14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1544,1096 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>0.000381339849253</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.693877551020408</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.475</v>
+      </c>
+      <c r="K15">
+        <v>0.183083172474541</v>
+      </c>
+      <c r="L15">
+        <v>0.0722905171029728</v>
+      </c>
+      <c r="M15">
+        <v>0.304464236239546</v>
+      </c>
+      <c r="N15">
+        <v>12.4124184728503</v>
+      </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15">
+        <v>1799585</v>
+      </c>
+      <c r="R15">
+        <v>5496887</v>
+      </c>
+      <c r="S15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>0.98353004670559</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.814432989690722</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>10.97</v>
+      </c>
+      <c r="K16">
+        <v>0.0350361727088698</v>
+      </c>
+      <c r="L16">
+        <v>0.0100343406593404</v>
+      </c>
+      <c r="M16">
+        <v>0.063550824175824</v>
+      </c>
+      <c r="N16">
+        <v>0.319381701995167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16">
+        <v>1799585</v>
+      </c>
+      <c r="R16">
+        <v>5496887</v>
+      </c>
+      <c r="S16" t="s">
+        <v>59</v>
+      </c>
+      <c r="T16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" t="s">
+        <v>61</v>
+      </c>
+      <c r="V16" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>0.936902895487841</v>
+      </c>
+      <c r="G17">
+        <v>0.0306122448979592</v>
+      </c>
+      <c r="H17">
+        <v>0.112244897959184</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.007</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>-0.0002229853479853</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17">
+        <v>1799585</v>
+      </c>
+      <c r="R17">
+        <v>5496887</v>
+      </c>
+      <c r="S17" t="s">
+        <v>59</v>
+      </c>
+      <c r="T17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" t="s">
+        <v>61</v>
+      </c>
+      <c r="V17" t="s">
+        <v>62</v>
+      </c>
+      <c r="W17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>0.977777777777778</v>
+      </c>
+      <c r="H18">
+        <v>0.06666666666666669</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18">
+        <v>1799585</v>
+      </c>
+      <c r="R18">
+        <v>5496887</v>
+      </c>
+      <c r="S18" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" t="s">
+        <v>61</v>
+      </c>
+      <c r="V18" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>0.968938626699542</v>
+      </c>
+      <c r="G19">
+        <v>0.908163265306122</v>
+      </c>
+      <c r="H19">
+        <v>0.0510204081632653</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.001</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19">
+        <v>1799585</v>
+      </c>
+      <c r="R19">
+        <v>5496887</v>
+      </c>
+      <c r="S19" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V19" t="s">
+        <v>62</v>
+      </c>
+      <c r="W19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>0.786554143217453</v>
+      </c>
+      <c r="G20">
+        <v>0.0306122448979592</v>
+      </c>
+      <c r="H20">
+        <v>0.530612244897959</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.029</v>
+      </c>
+      <c r="K20">
+        <v>-0.0009845013477087999</v>
+      </c>
+      <c r="L20">
+        <v>-0.0020020059781961</v>
+      </c>
+      <c r="M20">
+        <v>0.0005017170329669999</v>
+      </c>
+      <c r="N20">
+        <v>-3.39483223347893</v>
+      </c>
+      <c r="O20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20">
+        <v>1799585</v>
+      </c>
+      <c r="R20">
+        <v>5496887</v>
+      </c>
+      <c r="S20" t="s">
+        <v>59</v>
+      </c>
+      <c r="T20" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" t="s">
+        <v>62</v>
+      </c>
+      <c r="W20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21">
+        <v>0.50757782625405</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.58</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>-0.017461620443279</v>
+      </c>
+      <c r="M21">
+        <v>0.0188556958778051</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21">
+        <v>1799585</v>
+      </c>
+      <c r="R21">
+        <v>5496887</v>
+      </c>
+      <c r="S21" t="s">
+        <v>59</v>
+      </c>
+      <c r="T21" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" t="s">
+        <v>61</v>
+      </c>
+      <c r="V21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>0.893313146453441</v>
+      </c>
+      <c r="G22">
+        <v>0.0204081632653061</v>
+      </c>
+      <c r="H22">
+        <v>0.591836734693878</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>0.035</v>
+      </c>
+      <c r="K22">
+        <v>-0.0006695692025664</v>
+      </c>
+      <c r="L22">
+        <v>-0.0021102859289713</v>
+      </c>
+      <c r="M22">
+        <v>0.0004208307770685</v>
+      </c>
+      <c r="N22">
+        <v>-1.91305486447558</v>
+      </c>
+      <c r="O22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22">
+        <v>1799585</v>
+      </c>
+      <c r="R22">
+        <v>5496887</v>
+      </c>
+      <c r="S22" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" t="s">
+        <v>61</v>
+      </c>
+      <c r="V22" t="s">
+        <v>62</v>
+      </c>
+      <c r="W22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23">
+        <v>0.456830190290907</v>
+      </c>
+      <c r="G23">
+        <v>0.102040816326531</v>
+      </c>
+      <c r="H23">
+        <v>0.183673469387755</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.0016670470104974</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23">
+        <v>1799585</v>
+      </c>
+      <c r="R23">
+        <v>5496887</v>
+      </c>
+      <c r="S23" t="s">
+        <v>59</v>
+      </c>
+      <c r="T23" t="s">
+        <v>60</v>
+      </c>
+      <c r="U23" t="s">
+        <v>61</v>
+      </c>
+      <c r="V23" t="s">
+        <v>62</v>
+      </c>
+      <c r="W23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24">
+        <v>0.7890041083686939</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.173469387755102</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>-0.0002467709341196</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24">
+        <v>1799585</v>
+      </c>
+      <c r="R24">
+        <v>5496887</v>
+      </c>
+      <c r="S24" t="s">
+        <v>59</v>
+      </c>
+      <c r="T24" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" t="s">
+        <v>61</v>
+      </c>
+      <c r="V24" t="s">
+        <v>62</v>
+      </c>
+      <c r="W24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C15">
+      <c r="C25">
         <v>5</v>
       </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.63</v>
+      </c>
+      <c r="K25">
+        <v>-0.0080998585862288</v>
+      </c>
+      <c r="L25">
+        <v>-0.0122475199140087</v>
+      </c>
+      <c r="M25">
+        <v>0.0172233304024895</v>
+      </c>
+      <c r="N25">
+        <v>-1.28569183908394</v>
+      </c>
+      <c r="O25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25">
+        <v>1799585</v>
+      </c>
+      <c r="R25">
+        <v>5496887</v>
+      </c>
+      <c r="S25" t="s">
+        <v>59</v>
+      </c>
+      <c r="T25" t="s">
+        <v>60</v>
+      </c>
+      <c r="U25" t="s">
+        <v>61</v>
+      </c>
+      <c r="V25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="F15">
-        <v>0.04320536648685</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>126.15</v>
+      </c>
+      <c r="K26">
+        <v>-2.93992663587939</v>
+      </c>
+      <c r="L26">
+        <v>-21.0490927232329</v>
+      </c>
+      <c r="M26">
+        <v>2.0669997898037</v>
+      </c>
+      <c r="N26">
+        <v>-2.33050070224288</v>
+      </c>
+      <c r="O26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26">
+        <v>1799585</v>
+      </c>
+      <c r="R26">
+        <v>5496887</v>
+      </c>
+      <c r="S26" t="s">
+        <v>59</v>
+      </c>
+      <c r="T26" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" t="s">
+        <v>61</v>
+      </c>
+      <c r="V26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>7.37</v>
       </c>
-      <c r="K15">
-        <v>-0.221433597781218</v>
-      </c>
-      <c r="L15">
+      <c r="K27">
+        <v>-0.209134912708303</v>
+      </c>
+      <c r="L27">
         <v>-0.501638326902986</v>
       </c>
-      <c r="M15">
-        <v>-0.191983625505063</v>
-      </c>
-      <c r="N15">
-        <v>-3.00452642851042</v>
-      </c>
-      <c r="O15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="M27">
+        <v>0.238903220885058</v>
+      </c>
+      <c r="N27">
+        <v>-2.83765146144238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" t="s">
         <v>49</v>
       </c>
-      <c r="Q15">
-        <v>1799585</v>
-      </c>
-      <c r="R15">
-        <v>5496887</v>
-      </c>
-      <c r="S15" t="s">
-        <v>50</v>
-      </c>
-      <c r="T15" t="s">
-        <v>51</v>
-      </c>
-      <c r="U15" t="s">
-        <v>52</v>
-      </c>
-      <c r="V15" t="s">
-        <v>53</v>
+      <c r="Q27">
+        <v>1799585</v>
+      </c>
+      <c r="R27">
+        <v>5496887</v>
+      </c>
+      <c r="S27" t="s">
+        <v>59</v>
+      </c>
+      <c r="T27" t="s">
+        <v>60</v>
+      </c>
+      <c r="U27" t="s">
+        <v>61</v>
+      </c>
+      <c r="V27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>0.023801977363936</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.652</v>
+      </c>
+      <c r="K28">
+        <v>-0.0081970581560026</v>
+      </c>
+      <c r="L28">
+        <v>-0.0179802551141117</v>
+      </c>
+      <c r="M28">
+        <v>-0.0049356095721487</v>
+      </c>
+      <c r="N28">
+        <v>-1.25721750858936</v>
+      </c>
+      <c r="O28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28">
+        <v>1799585</v>
+      </c>
+      <c r="R28">
+        <v>5496887</v>
+      </c>
+      <c r="S28" t="s">
+        <v>59</v>
+      </c>
+      <c r="T28" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" t="s">
+        <v>61</v>
+      </c>
+      <c r="V28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>0.174041311816462</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>130</v>
+      </c>
+      <c r="K29">
+        <v>-1.58291391379089</v>
+      </c>
+      <c r="L29">
+        <v>-4.28418434749632</v>
+      </c>
+      <c r="M29">
+        <v>0.916885372136543</v>
+      </c>
+      <c r="N29">
+        <v>-1.21762608753145</v>
+      </c>
+      <c r="O29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29">
+        <v>1799585</v>
+      </c>
+      <c r="R29">
+        <v>5496887</v>
+      </c>
+      <c r="S29" t="s">
+        <v>59</v>
+      </c>
+      <c r="T29" t="s">
+        <v>60</v>
+      </c>
+      <c r="U29" t="s">
+        <v>61</v>
+      </c>
+      <c r="V29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>0.301083763874098</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>7.64</v>
+      </c>
+      <c r="K30">
+        <v>-0.0567178288180797</v>
+      </c>
+      <c r="L30">
+        <v>-0.207171739192986</v>
+      </c>
+      <c r="M30">
+        <v>0.0986558344569446</v>
+      </c>
+      <c r="N30">
+        <v>-0.742379958351829</v>
+      </c>
+      <c r="O30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30">
+        <v>1799585</v>
+      </c>
+      <c r="R30">
+        <v>5496887</v>
+      </c>
+      <c r="S30" t="s">
+        <v>59</v>
+      </c>
+      <c r="T30" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" t="s">
+        <v>61</v>
+      </c>
+      <c r="V30" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
